--- a/tables/inostr.xlsx
+++ b/tables/inostr.xlsx
@@ -22,7 +22,7 @@
     <t>Таганов Гапур</t>
   </si>
   <si>
-    <t xml:space="preserve">ПИ ИК К </t>
+    <t xml:space="preserve">ПИ ИК </t>
   </si>
   <si>
     <t>Копия</t>
@@ -43,7 +43,7 @@
     <t>Ашыров Эзиз</t>
   </si>
   <si>
-    <t xml:space="preserve">КБ ИК К </t>
+    <t xml:space="preserve">КБ ИК </t>
   </si>
   <si>
     <t>122478</t>
@@ -52,7 +52,7 @@
     <t>Ибадуллаев Нурягды</t>
   </si>
   <si>
-    <t xml:space="preserve">ФИИТ ИК К </t>
+    <t xml:space="preserve">ФИИТ ИК </t>
   </si>
   <si>
     <t>122502</t>

--- a/tables/inostr.xlsx
+++ b/tables/inostr.xlsx
@@ -390,18 +390,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:S6"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -415,13 +432,13 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
       <c r="P3" t="s">
         <v>3</v>
@@ -432,13 +449,13 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P4" t="s">
         <v>3</v>
@@ -449,38 +466,21 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
       </c>
       <c r="P5" t="s">
         <v>3</v>
       </c>
       <c r="S5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S6" t="s">
         <v>4</v>
       </c>
     </row>

--- a/tables/inostr.xlsx
+++ b/tables/inostr.xlsx
@@ -22,7 +22,7 @@
     <t>Таганов Гапур</t>
   </si>
   <si>
-    <t xml:space="preserve">ПИ ИК </t>
+    <t xml:space="preserve">ПИ И К </t>
   </si>
   <si>
     <t>Копия</t>
@@ -43,7 +43,7 @@
     <t>Ашыров Эзиз</t>
   </si>
   <si>
-    <t xml:space="preserve">КБ ИК </t>
+    <t xml:space="preserve">КБ И К </t>
   </si>
   <si>
     <t>122478</t>
@@ -52,7 +52,7 @@
     <t>Ибадуллаев Нурягды</t>
   </si>
   <si>
-    <t xml:space="preserve">ФИИТ ИК </t>
+    <t xml:space="preserve">ФИИТ И К </t>
   </si>
   <si>
     <t>122502</t>
